--- a/data/case1/5/Qlm1_2.xlsx
+++ b/data/case1/5/Qlm1_2.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.30919710729772731</v>
+        <v>-0.17413792331684164</v>
       </c>
       <c r="B1" s="0">
-        <v>0.30827135856015531</v>
+        <v>0.17380875865077172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.2005451271113543</v>
+        <v>-0.15170596666803338</v>
       </c>
       <c r="B2" s="0">
-        <v>0.19859110340858788</v>
+        <v>0.15041434536290677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.11820798446905556</v>
+        <v>-0.10069945673606817</v>
       </c>
       <c r="B3" s="0">
-        <v>0.11774184109426322</v>
+        <v>0.10035413552039962</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10974184121146635</v>
+        <v>-0.09235413559450123</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10932513111556297</v>
+        <v>0.092053061186891938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10632513118497844</v>
+        <v>-0.089053061229165564</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10490976430736065</v>
+        <v>0.088044057925706909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005625209480950133</v>
+        <v>-0.04314296658595751</v>
       </c>
       <c r="B6" s="0">
-        <v>0.005571032778759033</v>
+        <v>0.042702132992475939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0044289670616568522</v>
+        <v>-0.032702133097198605</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0044326620452408427</v>
+        <v>0.032599564583661866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.014432661886843778</v>
+        <v>0.019495993644183418</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.014443549663023969</v>
+        <v>-0.019528638988909552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.016443549596344198</v>
+        <v>0.021528638942418077</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.016461821537421262</v>
+        <v>-0.021577155909847434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.018461821475961315</v>
+        <v>0.023577155866783883</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.018461761819670741</v>
+        <v>-0.023582164423762819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.02146176174779324</v>
+        <v>-0.024387042357473909</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.021467808127290766</v>
+        <v>0.024361174405738595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0011083554993085443</v>
+        <v>-0.020861174461332066</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0011164751317047639</v>
+        <v>0.020668543528838512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.004616475058082159</v>
+        <v>-0.017168543588584662</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0046178346089407185</v>
+        <v>0.017081018123939806</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.01261783448783671</v>
+        <v>-0.0090810182174791976</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.012624601541518565</v>
+        <v>0.0090525987399106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.013624601498338329</v>
+        <v>-0.0080525987830668555</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.013637612488506257</v>
+        <v>0.0080342641125952241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.006033533881893316</v>
+        <v>-0.0060342641636763616</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060030530328458731</v>
+        <v>0.0060032669449858744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040030530851966617</v>
+        <v>-0.0040032669969436441</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999256137286</v>
+        <v>0.0039999999331978842</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10172623151831672</v>
+        <v>-0.016102792028064528</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10134151347430986</v>
+        <v>0.016091153256660107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.058837928715111065</v>
+        <v>-0.012091153287681067</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0578184944610447</v>
+        <v>0.012016259867849488</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.053818494530430527</v>
+        <v>-0.0080162599013053892</v>
       </c>
       <c r="B20" s="0">
-        <v>0.053522515132918613</v>
+        <v>0.0080055437869717139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.049522515206742668</v>
+        <v>-0.0040055438207966532</v>
       </c>
       <c r="B21" s="0">
-        <v>0.049049995073216834</v>
+        <v>0.0039999999659006136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.076383119005969391</v>
+        <v>-0.045714888667395925</v>
       </c>
       <c r="B22" s="0">
-        <v>0.075991243663003694</v>
+        <v>0.045500896120016066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.070991243747067223</v>
+        <v>-0.040500896170500233</v>
       </c>
       <c r="B23" s="0">
-        <v>0.070214424103085094</v>
+        <v>0.040099319712648018</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.05021442436346657</v>
+        <v>-0.020099319876584865</v>
       </c>
       <c r="B24" s="0">
-        <v>0.049896984598253979</v>
+        <v>0.019999999833713034</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097284554900824105</v>
+        <v>-0.097253873361879073</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097159370006465906</v>
+        <v>0.097129571374853896</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.09465937008786085</v>
+        <v>-0.094629571426045445</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094497307818604881</v>
+        <v>0.094469131953264451</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091997307905075765</v>
+        <v>-0.091969132007687193</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091029010072472882</v>
+        <v>0.091015396772316404</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089029010175270429</v>
+        <v>-0.089015396838727945</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088366283890401576</v>
+        <v>0.0883625175550522</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081366284062159622</v>
+        <v>-0.081362517668230439</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081174802559872639</v>
+        <v>0.081173479308259466</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.02117480331606636</v>
+        <v>-0.021173479813068496</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022116206252939</v>
+        <v>0.021023000372334177</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01402211639047124</v>
+        <v>-0.014023000494658433</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000735881507964</v>
+        <v>0.014000921209914807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.004000736098952018</v>
+        <v>-0.0040009213546099431</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998477480148</v>
+        <v>0.0039999998988697882</v>
       </c>
     </row>
   </sheetData>
